--- a/Course_Content.xlsx
+++ b/Course_Content.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52F6F55-869C-422B-B2C1-7877F069CD3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664DEE8C-52EA-47D8-8470-7F36F9EF2BAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="2340" windowWidth="18000" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ILT" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="35">
   <si>
     <t>Module 1_Introduction_to_tableau_Architecture_Data_Blending</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Not required</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Module No.</t>
@@ -524,7 +521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -540,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>7</v>
@@ -596,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
